--- a/DOC/C07_TIRT_ver.1.0.xlsx
+++ b/DOC/C07_TIRT_ver.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacoe\Documents\Universita\IS\Progetto\TheSpoon\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B442CA-D0F4-4393-9A19-AE5D2D2715AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FAB3ED-297C-4161-9FCB-94F9D3B3A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="68">
   <si>
     <t>Test Incident Report</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Data Iterazione: 05/01/2024</t>
+  </si>
+  <si>
+    <t>Esecuzione: 1</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1185,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,7 +1207,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="13" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>66</v>
